--- a/Excel/Excel/MMSCredopay.xlsx
+++ b/Excel/Excel/MMSCredopay.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL 7480\eclipse-workspace\MMSCredopay\Excel\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25A80432-B805-4DB1-AF20-6934EA4CD4FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F9A627-209E-4EB7-BEA7-FFA2FEB6E252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="921" firstSheet="12" activeTab="18" xr2:uid="{005994DC-EA0D-4C0F-B269-940F4670F484}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="921" xr2:uid="{005994DC-EA0D-4C0F-B269-940F4670F484}"/>
   </bookViews>
   <sheets>
     <sheet name="Credentials" sheetId="4" r:id="rId1"/>
@@ -1549,8 +1549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DD2D5D1-5EBA-4CE2-8135-1F2A22ACA3DC}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1576,7 +1576,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>114</v>
+        <v>2</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>282</v>
@@ -1587,7 +1587,7 @@
         <v>23</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>114</v>
+        <v>2</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>282</v>
@@ -1628,15 +1628,6 @@
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{A3C2506C-C359-4463-A2F3-DE18092D8B78}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{4EDDDD59-4461-4FDC-A92F-CC8E78197FC4}"/>
-    <hyperlink ref="B5" r:id="rId3" xr:uid="{74E9676C-91E0-47B5-B8B9-538C20A6E772}"/>
-    <hyperlink ref="B4" r:id="rId4" xr:uid="{BCF660F2-CFAB-4FE5-BC83-B3CB2EBC4540}"/>
-    <hyperlink ref="B4:B5" r:id="rId5" display="Credo@2024" xr:uid="{0A3D16AE-11B5-4B8D-AB4B-F37286544FE8}"/>
-    <hyperlink ref="B6" r:id="rId6" xr:uid="{940B3D2A-6D48-4FDC-810B-D88EE65A41C9}"/>
-    <hyperlink ref="A6" r:id="rId7" xr:uid="{78DF35C9-68E1-4306-A015-41C6D6F149CB}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4145,7 +4136,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55E96F2A-481D-44FE-AB6A-EFCE05D56489}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>

--- a/Excel/Excel/MMSCredopay.xlsx
+++ b/Excel/Excel/MMSCredopay.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL 7480\eclipse-workspace\MMSCredopay\Excel\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7314E21-2218-43E7-9804-BDB805B64ADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7ACBC5F-A8DC-453A-8987-7040407ACE54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="921" xr2:uid="{005994DC-EA0D-4C0F-B269-940F4670F484}"/>
   </bookViews>
@@ -1562,7 +1562,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
